--- a/LMS_login_credentials.xlsx
+++ b/LMS_login_credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wipro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C336017-A3C9-4089-A908-1991E72D1573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83AC4AB-1A6B-4178-8D10-230570F1939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFFC007D-6E0D-4A27-98E6-7E94C5D6EF9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t xml:space="preserve"> LMS Login Credentials</t>
   </si>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>SNO.</t>
+  </si>
+  <si>
+    <t>Chokkakula Kusuma</t>
+  </si>
+  <si>
+    <t>24NAG0555_PC50</t>
   </si>
 </sst>
 </file>
@@ -400,14 +406,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -723,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCE9AA9-9223-420C-A096-5E6C42E93890}">
-  <dimension ref="A2:D52"/>
+  <dimension ref="A2:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,13 +744,13 @@
   <sheetData>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -767,7 +773,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -781,7 +787,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -795,7 +801,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -809,7 +815,7 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -823,7 +829,7 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -837,7 +843,7 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -851,7 +857,7 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -865,7 +871,7 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -879,7 +885,7 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -893,7 +899,7 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -907,7 +913,7 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -921,7 +927,7 @@
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -935,7 +941,7 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -949,7 +955,7 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -963,7 +969,7 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -977,7 +983,7 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -991,7 +997,7 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1005,7 +1011,7 @@
       <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1019,7 +1025,7 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1033,7 +1039,7 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1047,7 +1053,7 @@
       <c r="C24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1061,7 +1067,7 @@
       <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1075,7 +1081,7 @@
       <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1089,7 +1095,7 @@
       <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1103,7 +1109,7 @@
       <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1117,7 +1123,7 @@
       <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1131,7 +1137,7 @@
       <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1145,7 +1151,7 @@
       <c r="C31" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1159,7 +1165,7 @@
       <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1173,7 +1179,7 @@
       <c r="C33" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1187,7 +1193,7 @@
       <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1201,7 +1207,7 @@
       <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1215,7 +1221,7 @@
       <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1229,7 +1235,7 @@
       <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1243,7 +1249,7 @@
       <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1257,7 +1263,7 @@
       <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1271,7 +1277,7 @@
       <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1285,7 +1291,7 @@
       <c r="C41" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1299,7 +1305,7 @@
       <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1313,7 +1319,7 @@
       <c r="C43" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1327,7 +1333,7 @@
       <c r="C44" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1341,7 +1347,7 @@
       <c r="C45" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1355,7 +1361,7 @@
       <c r="C46" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1369,7 +1375,7 @@
       <c r="C47" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1383,7 +1389,7 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1397,7 +1403,7 @@
       <c r="C49" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1411,7 +1417,7 @@
       <c r="C50" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1425,7 +1431,7 @@
       <c r="C51" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1439,7 +1445,21 @@
       <c r="C52" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1497,6 +1517,7 @@
     <hyperlink ref="D47" r:id="rId47" xr:uid="{79D1877D-46BF-48D9-B3BE-BD557423FF74}"/>
     <hyperlink ref="D49" r:id="rId48" xr:uid="{38418CDC-C732-4262-AF60-B2F0E125800A}"/>
     <hyperlink ref="D51" r:id="rId49" xr:uid="{1B6DCB52-DD25-4286-AA87-CDD8A0CDD310}"/>
+    <hyperlink ref="D53" r:id="rId50" xr:uid="{33CE0C18-A26E-45F1-8099-9FC5072AFCAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
